--- a/data/processed/X_test.xlsx
+++ b/data/processed/X_test.xlsx
@@ -436,198 +436,198 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>University_%</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Junior_col_%</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>University_%</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>Salary_Log</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Park_Land_%_Log</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Physician_100kP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Park_Land_%</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="B2" t="n">
         <v>15.2</v>
       </c>
-      <c r="B2" t="n">
-        <v>26.3</v>
-      </c>
       <c r="C2" t="n">
-        <v>308.2</v>
+        <v>5.730748922886015</v>
       </c>
       <c r="D2" t="n">
+        <v>2.844909383819407</v>
+      </c>
+      <c r="E2" t="n">
         <v>277.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="B3" t="n">
         <v>13.1</v>
       </c>
-      <c r="B3" t="n">
-        <v>19.2</v>
-      </c>
       <c r="C3" t="n">
-        <v>282.95</v>
+        <v>5.645270203588533</v>
       </c>
       <c r="D3" t="n">
+        <v>2.23001440015921</v>
+      </c>
+      <c r="E3" t="n">
         <v>338.4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="B4" t="n">
         <v>12.3</v>
       </c>
-      <c r="B4" t="n">
-        <v>14.1</v>
-      </c>
       <c r="C4" t="n">
-        <v>270.75</v>
+        <v>5.6011958858811</v>
       </c>
       <c r="D4" t="n">
+        <v>2.884800712846709</v>
+      </c>
+      <c r="E4" t="n">
         <v>319.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="B5" t="n">
         <v>12.9</v>
       </c>
-      <c r="B5" t="n">
-        <v>16.3</v>
-      </c>
       <c r="C5" t="n">
-        <v>289.55</v>
+        <v>5.668327993671799</v>
       </c>
       <c r="D5" t="n">
+        <v>2.533696813957432</v>
+      </c>
+      <c r="E5" t="n">
         <v>307.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="B6" t="n">
         <v>12.2</v>
       </c>
-      <c r="B6" t="n">
-        <v>13.4</v>
-      </c>
       <c r="C6" t="n">
-        <v>258.2</v>
+        <v>5.553734478412542</v>
       </c>
       <c r="D6" t="n">
+        <v>2.476538400117484</v>
+      </c>
+      <c r="E6" t="n">
         <v>255.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="B7" t="n">
         <v>12.9</v>
       </c>
-      <c r="B7" t="n">
-        <v>15.8</v>
-      </c>
       <c r="C7" t="n">
-        <v>269.2</v>
+        <v>5.595454597770573</v>
       </c>
       <c r="D7" t="n">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="E7" t="n">
         <v>297.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="B8" t="n">
         <v>13.7</v>
       </c>
-      <c r="B8" t="n">
-        <v>24.5</v>
-      </c>
       <c r="C8" t="n">
-        <v>315.35</v>
+        <v>5.753683133109661</v>
       </c>
       <c r="D8" t="n">
+        <v>2.98568193770049</v>
+      </c>
+      <c r="E8" t="n">
         <v>266.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="B9" t="n">
         <v>12.9</v>
       </c>
-      <c r="B9" t="n">
-        <v>14.3</v>
-      </c>
       <c r="C9" t="n">
-        <v>269.5</v>
+        <v>5.596568390349052</v>
       </c>
       <c r="D9" t="n">
+        <v>1.90210752639692</v>
+      </c>
+      <c r="E9" t="n">
         <v>322</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
         <v>14.2</v>
       </c>
-      <c r="B10" t="n">
-        <v>18</v>
-      </c>
       <c r="C10" t="n">
-        <v>272.5</v>
+        <v>5.607638614103299</v>
       </c>
       <c r="D10" t="n">
+        <v>1.97408102602201</v>
+      </c>
+      <c r="E10" t="n">
         <v>276.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="B11" t="n">
         <v>16.9</v>
       </c>
-      <c r="B11" t="n">
-        <v>18.1</v>
-      </c>
       <c r="C11" t="n">
-        <v>291.5</v>
+        <v>5.675040005790547</v>
       </c>
       <c r="D11" t="n">
+        <v>3.020424886144363</v>
+      </c>
+      <c r="E11" t="n">
         <v>243.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20.5</v>
       </c>
     </row>
   </sheetData>
